--- a/biology/Botanique/Datura/Datura.xlsx
+++ b/biology/Botanique/Datura/Datura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Datura est un genre de plantes de la famille des Solanacées, dont le centre de diversité se trouve au Mexique et dans le sud-ouest des États-Unis. Plusieurs espèces sont cultivées et se sont naturalisées dans les régions tempérées et tropicales du monde. On connaît une dizaine d'espèces du genre Datura. Ce sont des plantes riches en alcaloïdes dans tous leurs organes, vénéneuses mais intéressantes sur le plan pharmacologique.
 </t>
@@ -511,13 +523,15 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1753, Linné introduisit le genre Datura sur la base d'une description d'un arbuste d'Amérique du Sud, appelé antérieurement Stramonium arboreum. Depuis cette époque, la délimitation du genre n'a cessé de varier suivant la connaissance accumulée sur les espèces à port arbustif ou herbacé. Le problème est de savoir si les espèces arbustives doivent être classées à part dans le genre Brugmansia ou être incluses dans le genre Datura.
-Dès 1805, le botaniste Christian H. Persoon[1] pense qu'il faut exclure les espèces pérennes arbustives, jugement remis en cause en 1833 par J. J. Bernhardi qui estimait insuffisantes les différences entre les deux genres.
+Dès 1805, le botaniste Christian H. Persoon pense qu'il faut exclure les espèces pérennes arbustives, jugement remis en cause en 1833 par J. J. Bernhardi qui estimait insuffisantes les différences entre les deux genres.
 Mais en 1895, G. Lagerheim après quelques années de recherches sur le terrain en Équateur, traite les Brugmansia à nouveau comme un genre à part. Et encore une fois, un botaniste du nom de W.E. Safford jugea en 1921 qu'il fallait inclure les arbustes dans les Datura.
 Tommie E. Lockwood, dans sa thèse en 1973 A taxonomic Revision of Brugmansia (Solanaceae), se prononce nettement en faveur d'un traitement à part des espèces arbustives. Depuis cette époque le jugement fait autorité.
-Voici quelques traits distinctifs relevés par Preissel[1] (2000) :
+Voici quelques traits distinctifs relevés par Preissel (2000) :
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme de datura est lui-même d'origine indienne (sanscrit धतूरा dhattūra) et nous a été transmis par l'intermédiaire du portugais (attesté depuis 1563, Garcia da Orta). Il a été vulgarisé en français par l'intermédiaire du latin scientifique des droguistes et herboristes[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme de datura est lui-même d'origine indienne (sanscrit धतूरा dhattūra) et nous a été transmis par l'intermédiaire du portugais (attesté depuis 1563, Garcia da Orta). Il a été vulgarisé en français par l'intermédiaire du latin scientifique des droguistes et herboristes.
 </t>
         </is>
       </c>
